--- a/捐赠证明.xlsx
+++ b/捐赠证明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EADECD-2300-449F-88A1-8EF5C927AA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E8FC73-658A-4AA8-B720-C8EEAABE4641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="捐赠证明" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>书籍编号列表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -33,30 +33,6 @@
   <si>
     <t>捐赠证明编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ck-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>Ck-02
-Ck-03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>Aa-01
-Ab-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -101,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,7 +106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -134,6 +116,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -419,7 +407,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -430,36 +418,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/捐赠证明.xlsx
+++ b/捐赠证明.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E8FC73-658A-4AA8-B720-C8EEAABE4641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B4744-3630-4179-93F4-3380768D65C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="捐赠证明" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,47 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>捐赠证明编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>书籍编号列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>捐赠证明编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Ck-01
+Ck-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -100,33 +87,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{33AEA2A3-BB16-47E0-A838-6257A341E9B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -158,7 +142,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -170,7 +154,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -187,7 +171,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -217,12 +201,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -252,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,39 +421,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145951EE-6756-47FE-ABA2-FE14EEA6127D}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61F2435-7D8D-4A4E-9A73-D82C0061F394}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
